--- a/static/result.xlsx
+++ b/static/result.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A50"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,350 +424,70 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>IT·경제 중심지 마곡 '문화·역사' 업데이트</t>
+          <t>이마트24, 조선호텔 유니짜장 출시</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>"AI, 10년내 IT·보안 전문가 대체" 41%</t>
+          <t>이마트24, '285만원 골드바' 24일까지 한정판매</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>비에스지원, 베트남 IT기업과 통합법인 출범..동남아 IT아웃소싱 ...</t>
+          <t>용산 주한미군 기지 자택 대기령 24일까지 연장</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>코치, 봄 2021 캠페인 "COACH IT FORWARD" 론칭</t>
+          <t>이마트24, 캔포가토&amp;쿨링백 한정 예약판매</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[데스크칼럼]IT 강국의 이타적 시스템</t>
+          <t>'이자 年 24% 초과'..P2P 6社 영업정지</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[알립니다] IT조선 뉴스레터가 달라집니다</t>
+          <t>초등 돌봄교실 "'정부 24'에서 신청하세요"</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Yanolja Takes Over Sanha IT, Korea's No. 1 Hotel Solution Pro...</t>
+          <t>"캔포가토 아세요?"..이마트24, 기획세트 한정판매</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>페어스퀘어랩, 싸고 편리한 IT기기 유통망 구축</t>
+          <t>Celebrity Birthdays - Jan. 24-30</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>중국도 개인정보 보호 강화하는데..국내IT는 완화 요청</t>
+          <t>이마트24 "285만 원대 골드바 70개 완판"</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Profit-sharing idea gets a thumbs down from IT executives</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>글로벌 IT ‘에이서(ACER)’ 라이선스 도입</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>[기고]갈라파고스를 자처하는 한국의 IT 규제정책</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>There's no such thing as 'alternative facts'. 5 ways to spot ...</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>IT업계 "ESG 경영 강화" 외치는 이유</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>엔씨, IT기술·콘텐츠의 합종연횡으로 ‘태풍의 눈’될까</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>IT기업 참전에 ‘3분할’하는 車산업…“플랫폼 경쟁 시작됐다”</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>넥슨 김정주는 왜 '빗썸' 주인이 되려하나[이진욱의 렛IT고]</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>포스트코로나 성장률 회복..수출+IT 경쟁력 관건</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>세종사이버대 IT학부, 가상실습실 구축</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>IT 장점 활용 국경 초월 온택트로 지구촌에 한류 확산</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>IT 빅테크 기업들의 자동차 산업 진출 확대.."적과의 동침 늘어난다"</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Samsung SDS: Logistics BPO Faring Well; IT Service to See Ear...</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>美거대 IT 기업, 트럼프의 발언 비난..'선긋기'</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>IT업계 창업자는 '이사회 의장'직을 왜 좋아할까</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>"코로나 이익공유제? 혁신 성장판 닫겠단거냐" 들끓는 IT업계</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>[사진으로 보는 세상] 세계 최대 IT·가전 전시회 'CES 2021' 온...</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>호주유학 후 영주권 얻으려면.. 호주대학교 IT학과 8개전공 2학년...</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>한국IT직업전문학교 정보보안학과 2021학년도 신입생 모집... 보...</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>IT, bio lead Korean IPO market: KRX</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>한국 시총 IT 비율, 20년새 25→63%</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Actor Jin Ji-hee embraces her age and the roles that come wit...</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>인텔 새 CEO '특허 8개 보유' 베테랑 IT 엔지니어</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>'애플빠' 김정은, 북한 주민은 요즘 어떤 휴대폰 쓸까? [IT선빵!]</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>혼인율 '전후 최악'.. 日정부 첨단 IT 기술까지 동원해 온라인 중매</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>코스피 IPO 시장, 금융·화학에서 IT·바이오로 재편</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>IT 플랫폼이 잡은 라이브 커머스, 유통 기업 '쿠팡'의 도전장</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>신세계 SSG닷컴, 국내외 IT 업체 유명인사 초빙 '마스터 클래스' ...</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>대형 IT기업, 국내 개인정보 무단 활용 줄이어</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>[보안 따라잡기]페이스북서 이루다까지..IT기업 개인정보보호 '비상'</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>현대오토에버, IT서비스 기업 관심도 증가율 1위</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Korean financial regulator finds Kospi overheated if it hits ...</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>코스피 이틀째 숨고르기..IT 업종 비중 급증</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>현대IT&amp;E, AWS리인벤트서 스마트스토어 구축기술 공개</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>새해부터 불붙는 車와 IT 결합.. "지금 아니면 늦는다" 공감대</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>[새책] IT 좀 아는 사람</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>중소IT기업, 공공IT 사업으로 숨통 트인다</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Trump Tried to End Federal Arts Funding. Instead, It Grew.</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>NHN "IT 실무인재 키워 中企 인력난 해결"</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>'에어큐브' 비대면 IT환경 대비, 인증⋅보안 시장 공략</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>"中 대형 IT, 단기 규제 위험에도 여전히 투자 매력적"</t>
+          <t>익산상의, 제24회 익산상공대상 수상자 3명 선정·시상</t>
         </is>
       </c>
     </row>
